--- a/output/inference_results/test_sheets/batch_004/test_sheet (35).xlsx
+++ b/output/inference_results/test_sheets/batch_004/test_sheet (35).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,120 +424,110 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>序号</t>
+          <t>项目名称</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>项目名称</t>
+          <t>结果</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>结果</t>
+          <t>单位</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>单位</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
           <t>参考值</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>滴虫</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>滴虫</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>阴性</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
+          <t>阴性</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
         <is>
           <t>阴性</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>球菌</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>球菌</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>阴性</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+          <t>阴性</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>阴性</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>纤毛菌</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>纤毛菌</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>阴性</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+          <t>阴性</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>阴性</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>白细胞</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>白细胞</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
           <t>十十</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>一</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>依细胞</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>依细胞</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>阴性</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+          <t>阴性</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>阴性</t>
         </is>
@@ -546,89 +536,88 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>福</t>
+          <t>线索细胞</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>阴性</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>阴性</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>真菌</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>线索细胞</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>阴性</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+          <t>阴性</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>阴性</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>阴道杆菌</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>酵母样真菌</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>阴性</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>阴性</t>
+          <t>阴性</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>阳性</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>细胞内肾形双球菌</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>阴道杆菌</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>阴性</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>阳性</t>
+          <t>阴性</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>阴性</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>细胞外肾形双球菌</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>细胞内肾形双球菌</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>阴性</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+          <t>阴性</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>阴性</t>
         </is>
@@ -637,21 +626,16 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>条件致病性小杆菌</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>细胞外肾形双球菌</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>阴性</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
+          <t>十十</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>阴性</t>
         </is>
@@ -660,44 +644,16 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>二</t>
+          <t>加德纳球杆菌</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>条件致病性小杆菌</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>十十</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>阴性</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>加德纳球杆菌</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>阴性</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
+          <t>阴性</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>阴性</t>
         </is>
